--- a/Scopus_cosine_similarity.xlsx
+++ b/Scopus_cosine_similarity.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C14">
@@ -592,7 +592,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C16">
@@ -952,7 +952,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C40">
@@ -982,7 +982,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C42">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C66">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C68">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C92">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C94">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C118">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C120">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C144">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C146">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C170">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C172">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C196">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C198">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C222">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C224">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C248">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C250">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C274">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C276">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C300">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C302">
@@ -5057,7 +5057,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5072,7 +5072,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5087,7 +5087,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5102,7 +5102,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5117,7 +5117,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5147,7 +5147,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5162,7 +5162,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5177,7 +5177,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5192,7 +5192,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5207,7 +5207,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5222,7 +5222,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5237,12 +5237,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C326">
@@ -5252,7 +5252,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5267,12 +5267,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C328">
@@ -5282,7 +5282,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -5297,7 +5297,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5312,7 +5312,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5327,7 +5327,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -5342,7 +5342,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5357,7 +5357,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -5372,7 +5372,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5387,7 +5387,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5402,7 +5402,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5417,7 +5417,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5432,7 +5432,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C352">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C354">
@@ -5837,7 +5837,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5852,7 +5852,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5867,7 +5867,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5882,7 +5882,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5897,7 +5897,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5912,7 +5912,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -5927,7 +5927,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -5942,7 +5942,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -5957,7 +5957,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -5972,7 +5972,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -5987,7 +5987,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6002,7 +6002,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6017,12 +6017,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C378">
@@ -6032,7 +6032,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6047,12 +6047,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C380">
@@ -6062,7 +6062,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6077,7 +6077,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6092,7 +6092,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6107,7 +6107,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6137,7 +6137,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6152,7 +6152,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6167,7 +6167,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6182,7 +6182,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6197,7 +6197,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6212,7 +6212,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C404">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C406">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C430">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C432">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C456">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C458">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C482">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C484">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C508">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C510">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C534">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C536">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C560">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C562">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C586">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C588">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C612">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C614">
@@ -9922,7 +9922,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C638">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C640">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Egineer.</t>
+          <t>Engineer.</t>
         </is>
       </c>
       <c r="C664">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>HealthProfess</t>
+          <t>HealthPro</t>
         </is>
       </c>
       <c r="C666">
